--- a/medicine/Mort/Cimetière_marin_de_Sète/Cimetière_marin_de_Sète.xlsx
+++ b/medicine/Mort/Cimetière_marin_de_Sète/Cimetière_marin_de_Sète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_S%C3%A8te</t>
+          <t>Cimetière_marin_de_Sète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière marin de Sète, ou cimetière Saint-Charles, est un cimetière marin, se trouvant dans la ville de Sète, dominant le littoral du golfe du Lion, en Méditerranée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_S%C3%A8te</t>
+          <t>Cimetière_marin_de_Sète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été créé vers 1680 afin d'y ensevelir les premiers travailleurs employés à la construction du môle Saint-Louis.
-Le cimetière a d'abord porté le nom de Cimetière Saint-Charles et a reçu le nom de Cimetière marin le 7 août 1945 en référence au poème de l'écrivain, poète et philosophe sétois Paul Valéry, qui y avait été inhumé quelques jours auparavant. Au niveau local, il est appelé « cimetière des riches », en opposition au cimetière Le Py, surnommé « cimetière des pauvres », situé face à l'étang de Thau[1].
+Le cimetière a d'abord porté le nom de Cimetière Saint-Charles et a reçu le nom de Cimetière marin le 7 août 1945 en référence au poème de l'écrivain, poète et philosophe sétois Paul Valéry, qui y avait été inhumé quelques jours auparavant. Au niveau local, il est appelé « cimetière des riches », en opposition au cimetière Le Py, surnommé « cimetière des pauvres », situé face à l'étang de Thau.
 Le poème Le Cimetière marin (1920) de Paul Valéry débute par ces vers :
 Ce toit tranquille, où marchent des colombes,
 Entre les pins palpite, entre les tombes ;
@@ -522,7 +536,7 @@
 La mer, la mer, toujours recommencée !
 Ô récompense après une pensée
 Qu’un long regard sur le calme des dieux !
-Georges Brassens l'évoque également (« [que] mon cimetière soit plus marin que le sien ») dans sa chanson Supplique pour être enterré à la plage de Sète (1966), il est cependant enterré dans l'autre cimetière de Sète, le cimetière Le Py, auprès des siens, comme il l’a toujours intimement désiré[2].
+Georges Brassens l'évoque également (« [que] mon cimetière soit plus marin que le sien ») dans sa chanson Supplique pour être enterré à la plage de Sète (1966), il est cependant enterré dans l'autre cimetière de Sète, le cimetière Le Py, auprès des siens, comme il l’a toujours intimement désiré.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_S%C3%A8te</t>
+          <t>Cimetière_marin_de_Sète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Inhumés célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paul Blanc (1855-1913), consul de France à La Canée, en Crète, puis à Smyrne (aujourd'hui Izmir en Turquie),
 Vincent Cianni (1895-1960), champion de joutes languedociennes,
